--- a/3 TP Analysis/04 - Tables/Cover_averaged_over_sites.xlsx
+++ b/3 TP Analysis/04 - Tables/Cover_averaged_over_sites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shannon/GitHub/NFI_benthic_community/3 TP Analysis/04 - Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27751E00-7720-BC49-A9AD-DA01FB5F1A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3F5E08-19CB-BA43-8505-DB1CB1005E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="24300" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10460" yWindow="500" windowWidth="27940" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>April 2021</t>
   </si>
   <si>
-    <t>CB</t>
-  </si>
-  <si>
     <t>All other</t>
   </si>
   <si>
@@ -72,25 +69,28 @@
     <t>Turf</t>
   </si>
   <si>
-    <t>EB</t>
-  </si>
-  <si>
-    <t>SB</t>
-  </si>
-  <si>
     <t>April 2022</t>
   </si>
   <si>
     <t>April 2023</t>
   </si>
   <si>
+    <t>Benthic category</t>
+  </si>
+  <si>
+    <t>Cover (%)</t>
+  </si>
+  <si>
+    <t>Slaughter Bay</t>
+  </si>
+  <si>
+    <t>Emily Bay</t>
+  </si>
+  <si>
+    <t>Cemetery Bay</t>
+  </si>
+  <si>
     <t>Time point</t>
-  </si>
-  <si>
-    <t>Benthic category</t>
-  </si>
-  <si>
-    <t>Cover (%)</t>
   </si>
 </sst>
 </file>
@@ -106,30 +106,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -144,11 +126,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -447,27 +426,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75:E75"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -478,112 +458,112 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>0.01</v>
       </c>
       <c r="E2">
-        <v>4.1100000000000003</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4.1100000000000003</v>
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0.09</v>
+      </c>
+      <c r="E3">
+        <v>4.12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>9.6300000000000008</v>
       </c>
       <c r="E4">
-        <v>4.1100000000000003</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>22.82</v>
       </c>
       <c r="E5">
-        <v>4.1100000000000003</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>0.73</v>
       </c>
       <c r="E6">
-        <v>4.1100000000000003</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>27.69</v>
+        <v>27.7</v>
       </c>
       <c r="E7">
-        <v>4.1100000000000003</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>0.49</v>
       </c>
       <c r="E8">
-        <v>4.1100000000000003</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>29.43</v>
       </c>
       <c r="E9">
-        <v>4.1100000000000003</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>9.1</v>
       </c>
       <c r="E10">
-        <v>4.1100000000000003</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -594,18 +574,18 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12">
         <v>0.11</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>4.3099999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>16.47</v>
@@ -616,7 +596,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>24.47</v>
@@ -627,7 +607,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>0.65</v>
@@ -638,7 +618,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <v>18.54</v>
@@ -649,7 +629,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17">
         <v>0.68</v>
@@ -660,7 +640,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>34.9</v>
@@ -671,7 +651,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <v>4.17</v>
@@ -682,10 +662,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
         <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -696,18 +676,18 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21">
         <v>1.1599999999999999</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21">
         <v>5.53</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>12.52</v>
@@ -718,7 +698,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23">
         <v>51.72</v>
@@ -729,7 +709,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24">
         <v>0.74</v>
@@ -740,7 +720,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25">
         <v>6.68</v>
@@ -751,7 +731,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26">
         <v>0.54</v>
@@ -762,7 +742,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27">
         <v>19.48</v>
@@ -773,7 +753,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28">
         <v>7.16</v>
@@ -784,13 +764,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -801,18 +781,18 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="E30" s="2">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>0.23</v>
+      </c>
+      <c r="E30">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31">
         <v>18.38</v>
@@ -823,7 +803,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32">
         <v>21.02</v>
@@ -834,7 +814,7 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33">
         <v>0.5</v>
@@ -845,10 +825,10 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34">
-        <v>21.08</v>
+        <v>21.09</v>
       </c>
       <c r="E34">
         <v>4</v>
@@ -856,7 +836,7 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35">
         <v>0.48</v>
@@ -867,7 +847,7 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36">
         <v>31.47</v>
@@ -878,7 +858,7 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37">
         <v>6.84</v>
@@ -889,10 +869,10 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38">
         <v>0.01</v>
@@ -903,18 +883,18 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="2">
+        <v>4</v>
+      </c>
+      <c r="D39">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39">
         <v>4.2699999999999996</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40">
         <v>22.92</v>
@@ -925,7 +905,7 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41">
         <v>26.55</v>
@@ -936,7 +916,7 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D42">
         <v>0.75</v>
@@ -947,7 +927,7 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D43">
         <v>14.45</v>
@@ -958,7 +938,7 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D44">
         <v>0.55000000000000004</v>
@@ -969,7 +949,7 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D45">
         <v>31.21</v>
@@ -980,7 +960,7 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D46">
         <v>3.3</v>
@@ -991,10 +971,10 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" t="s">
         <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>4</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1005,18 +985,18 @@
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="2">
+        <v>4</v>
+      </c>
+      <c r="D48">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48">
         <v>5.61</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1027,7 +1007,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50">
         <v>32.5</v>
@@ -1038,7 +1018,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D51">
         <v>0.62</v>
@@ -1049,7 +1029,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D52">
         <v>13.14</v>
@@ -1060,7 +1040,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D53">
         <v>0.64</v>
@@ -1071,7 +1051,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D54">
         <v>45.76</v>
@@ -1082,7 +1062,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D55">
         <v>7.2</v>
@@ -1093,13 +1073,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" t="s">
         <v>16</v>
       </c>
-      <c r="B56" t="s">
-        <v>14</v>
-      </c>
       <c r="C56" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1110,18 +1090,18 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="3">
+        <v>4</v>
+      </c>
+      <c r="D57">
         <v>0.27</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57">
         <v>3.97</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D58">
         <v>11.74</v>
@@ -1132,7 +1112,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D59">
         <v>31.11</v>
@@ -1143,7 +1123,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D60">
         <v>1.3</v>
@@ -1154,7 +1134,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D61">
         <v>22.17</v>
@@ -1165,7 +1145,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D62">
         <v>0.64</v>
@@ -1176,7 +1156,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D63">
         <v>23.81</v>
@@ -1187,7 +1167,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D64">
         <v>8.9600000000000009</v>
@@ -1198,10 +1178,10 @@
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C65" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65">
         <v>0.01</v>
@@ -1212,18 +1192,18 @@
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="3">
+        <v>4</v>
+      </c>
+      <c r="D66">
         <v>0.03</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66">
         <v>4.46</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D67">
         <v>11.98</v>
@@ -1234,7 +1214,7 @@
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D68">
         <v>39.450000000000003</v>
@@ -1245,7 +1225,7 @@
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D69">
         <v>0.99</v>
@@ -1256,7 +1236,7 @@
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D70">
         <v>15.43</v>
@@ -1267,7 +1247,7 @@
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D71">
         <v>0.88</v>
@@ -1278,7 +1258,7 @@
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D72">
         <v>23.31</v>
@@ -1289,7 +1269,7 @@
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D73">
         <v>7.94</v>
@@ -1300,10 +1280,10 @@
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" t="s">
         <v>3</v>
-      </c>
-      <c r="C74" t="s">
-        <v>4</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -1314,18 +1294,18 @@
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="3">
+        <v>4</v>
+      </c>
+      <c r="D75">
         <v>3.78</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75">
         <v>3.99</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D76">
         <v>10.76</v>
@@ -1336,7 +1316,7 @@
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D77">
         <v>28.2</v>
@@ -1347,7 +1327,7 @@
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D78">
         <v>1.22</v>
@@ -1358,7 +1338,7 @@
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D79">
         <v>16.64</v>
@@ -1369,7 +1349,7 @@
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D80">
         <v>0.72</v>
@@ -1380,7 +1360,7 @@
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D81">
         <v>31.64</v>
@@ -1391,7 +1371,7 @@
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D82">
         <v>7.04</v>

--- a/3 TP Analysis/04 - Tables/Cover_averaged_over_sites.xlsx
+++ b/3 TP Analysis/04 - Tables/Cover_averaged_over_sites.xlsx
@@ -434,7 +434,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.52537189408109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1.16</v>
       </c>
       <c r="E3" t="n">
-        <v>5.52537189408109</v>
+        <v>0.530967541957364</v>
       </c>
     </row>
     <row r="4">
@@ -468,7 +468,7 @@
         <v>12.52</v>
       </c>
       <c r="E4" t="n">
-        <v>5.52537189408109</v>
+        <v>1.39422716504704</v>
       </c>
     </row>
     <row r="5">
@@ -485,7 +485,7 @@
         <v>51.72</v>
       </c>
       <c r="E5" t="n">
-        <v>5.52537189408109</v>
+        <v>4.02989238728049</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         <v>0.74</v>
       </c>
       <c r="E6" t="n">
-        <v>5.52537189408109</v>
+        <v>0.276730178760349</v>
       </c>
     </row>
     <row r="7">
@@ -519,7 +519,7 @@
         <v>6.68</v>
       </c>
       <c r="E7" t="n">
-        <v>5.52537189408109</v>
+        <v>0.917601131611494</v>
       </c>
     </row>
     <row r="8">
@@ -536,7 +536,7 @@
         <v>0.54</v>
       </c>
       <c r="E8" t="n">
-        <v>5.52537189408109</v>
+        <v>0.167112329324454</v>
       </c>
     </row>
     <row r="9">
@@ -553,7 +553,7 @@
         <v>19.48</v>
       </c>
       <c r="E9" t="n">
-        <v>5.52537189408109</v>
+        <v>2.36215743656134</v>
       </c>
     </row>
     <row r="10">
@@ -570,7 +570,7 @@
         <v>7.16</v>
       </c>
       <c r="E10" t="n">
-        <v>5.52537189408109</v>
+        <v>1.1850635047136</v>
       </c>
     </row>
     <row r="11">
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>4.31286089919469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -604,7 +604,7 @@
         <v>0.113333333333333</v>
       </c>
       <c r="E12" t="n">
-        <v>4.31286089919469</v>
+        <v>0.0449077270887141</v>
       </c>
     </row>
     <row r="13">
@@ -621,7 +621,7 @@
         <v>16.4733333333333</v>
       </c>
       <c r="E13" t="n">
-        <v>4.31286089919469</v>
+        <v>1.49647450473634</v>
       </c>
     </row>
     <row r="14">
@@ -638,7 +638,7 @@
         <v>24.4733333333333</v>
       </c>
       <c r="E14" t="n">
-        <v>4.31286089919469</v>
+        <v>2.34561224277111</v>
       </c>
     </row>
     <row r="15">
@@ -655,7 +655,7 @@
         <v>0.646666666666667</v>
       </c>
       <c r="E15" t="n">
-        <v>4.31286089919469</v>
+        <v>0.200700488427863</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         <v>18.54</v>
       </c>
       <c r="E16" t="n">
-        <v>4.31286089919469</v>
+        <v>1.48831781985096</v>
       </c>
     </row>
     <row r="17">
@@ -689,7 +689,7 @@
         <v>0.68</v>
       </c>
       <c r="E17" t="n">
-        <v>4.31286089919469</v>
+        <v>0.125254104140451</v>
       </c>
     </row>
     <row r="18">
@@ -706,7 +706,7 @@
         <v>34.9</v>
       </c>
       <c r="E18" t="n">
-        <v>4.31286089919469</v>
+        <v>1.98609821754965</v>
       </c>
     </row>
     <row r="19">
@@ -723,7 +723,7 @@
         <v>4.17333333333333</v>
       </c>
       <c r="E19" t="n">
-        <v>4.31286089919469</v>
+        <v>0.447788167666546</v>
       </c>
     </row>
     <row r="20">
@@ -740,7 +740,7 @@
         <v>0.00869565217391304</v>
       </c>
       <c r="E20" t="n">
-        <v>4.11580826935588</v>
+        <v>0.00869565217391304</v>
       </c>
     </row>
     <row r="21">
@@ -757,7 +757,7 @@
         <v>0.0869565217391304</v>
       </c>
       <c r="E21" t="n">
-        <v>4.11580826935588</v>
+        <v>0.04698239201842</v>
       </c>
     </row>
     <row r="22">
@@ -774,7 +774,7 @@
         <v>9.62608695652174</v>
       </c>
       <c r="E22" t="n">
-        <v>4.11580826935588</v>
+        <v>0.858531863069872</v>
       </c>
     </row>
     <row r="23">
@@ -791,7 +791,7 @@
         <v>22.8217391304348</v>
       </c>
       <c r="E23" t="n">
-        <v>4.11580826935588</v>
+        <v>1.92924831876499</v>
       </c>
     </row>
     <row r="24">
@@ -808,7 +808,7 @@
         <v>0.730434782608696</v>
       </c>
       <c r="E24" t="n">
-        <v>4.11580826935588</v>
+        <v>0.176849147497534</v>
       </c>
     </row>
     <row r="25">
@@ -825,7 +825,7 @@
         <v>27.7</v>
       </c>
       <c r="E25" t="n">
-        <v>4.11580826935588</v>
+        <v>1.77929946557363</v>
       </c>
     </row>
     <row r="26">
@@ -842,7 +842,7 @@
         <v>0.491304347826087</v>
       </c>
       <c r="E26" t="n">
-        <v>4.11580826935588</v>
+        <v>0.0778828708630368</v>
       </c>
     </row>
     <row r="27">
@@ -859,7 +859,7 @@
         <v>29.4347826086957</v>
       </c>
       <c r="E27" t="n">
-        <v>4.11580826935588</v>
+        <v>1.68706378023432</v>
       </c>
     </row>
     <row r="28">
@@ -876,7 +876,7 @@
         <v>9.1</v>
       </c>
       <c r="E28" t="n">
-        <v>4.11580826935588</v>
+        <v>0.766127160396429</v>
       </c>
     </row>
     <row r="29">
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>5.60806672086549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -910,7 +910,7 @@
         <v>0.14</v>
       </c>
       <c r="E30" t="n">
-        <v>5.60806672086549</v>
+        <v>0.121251972422417</v>
       </c>
     </row>
     <row r="31">
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>5.60806672086549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -944,7 +944,7 @@
         <v>32.5</v>
       </c>
       <c r="E32" t="n">
-        <v>5.60806672086549</v>
+        <v>4.8236026844199</v>
       </c>
     </row>
     <row r="33">
@@ -961,7 +961,7 @@
         <v>0.62</v>
       </c>
       <c r="E33" t="n">
-        <v>5.60806672086549</v>
+        <v>0.335504493719715</v>
       </c>
     </row>
     <row r="34">
@@ -978,7 +978,7 @@
         <v>13.14</v>
       </c>
       <c r="E34" t="n">
-        <v>5.60806672086549</v>
+        <v>1.92661488055065</v>
       </c>
     </row>
     <row r="35">
@@ -995,7 +995,7 @@
         <v>0.64</v>
       </c>
       <c r="E35" t="n">
-        <v>5.60806672086549</v>
+        <v>0.247039615099626</v>
       </c>
     </row>
     <row r="36">
@@ -1012,7 +1012,7 @@
         <v>45.76</v>
       </c>
       <c r="E36" t="n">
-        <v>5.60806672086549</v>
+        <v>4.62553339450419</v>
       </c>
     </row>
     <row r="37">
@@ -1029,7 +1029,7 @@
         <v>7.2</v>
       </c>
       <c r="E37" t="n">
-        <v>5.60806672086549</v>
+        <v>1.22690917449051</v>
       </c>
     </row>
     <row r="38">
@@ -1046,7 +1046,7 @@
         <v>0.00645161290322581</v>
       </c>
       <c r="E38" t="n">
-        <v>4.2706584119779</v>
+        <v>0.00645161290322581</v>
       </c>
     </row>
     <row r="39">
@@ -1063,7 +1063,7 @@
         <v>0.27741935483871</v>
       </c>
       <c r="E39" t="n">
-        <v>4.2706584119779</v>
+        <v>0.108513003655676</v>
       </c>
     </row>
     <row r="40">
@@ -1080,7 +1080,7 @@
         <v>22.9161290322581</v>
       </c>
       <c r="E40" t="n">
-        <v>4.2706584119779</v>
+        <v>1.78388153580438</v>
       </c>
     </row>
     <row r="41">
@@ -1097,7 +1097,7 @@
         <v>26.5483870967742</v>
       </c>
       <c r="E41" t="n">
-        <v>4.2706584119779</v>
+        <v>2.33747262257355</v>
       </c>
     </row>
     <row r="42">
@@ -1114,7 +1114,7 @@
         <v>0.748387096774194</v>
       </c>
       <c r="E42" t="n">
-        <v>4.2706584119779</v>
+        <v>0.397477756741269</v>
       </c>
     </row>
     <row r="43">
@@ -1131,7 +1131,7 @@
         <v>14.4451612903226</v>
       </c>
       <c r="E43" t="n">
-        <v>4.2706584119779</v>
+        <v>1.18166207370352</v>
       </c>
     </row>
     <row r="44">
@@ -1148,7 +1148,7 @@
         <v>0.554838709677419</v>
       </c>
       <c r="E44" t="n">
-        <v>4.2706584119779</v>
+        <v>0.105222622130968</v>
       </c>
     </row>
     <row r="45">
@@ -1165,7 +1165,7 @@
         <v>31.2064516129032</v>
       </c>
       <c r="E45" t="n">
-        <v>4.2706584119779</v>
+        <v>2.69576926170895</v>
       </c>
     </row>
     <row r="46">
@@ -1182,7 +1182,7 @@
         <v>3.29677419354839</v>
       </c>
       <c r="E46" t="n">
-        <v>4.2706584119779</v>
+        <v>0.348096047489825</v>
       </c>
     </row>
     <row r="47">
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>3.99758248930579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1216,7 +1216,7 @@
         <v>0.229437229437229</v>
       </c>
       <c r="E48" t="n">
-        <v>3.99758248930579</v>
+        <v>0.0678845782032709</v>
       </c>
     </row>
     <row r="49">
@@ -1233,7 +1233,7 @@
         <v>18.3766233766234</v>
       </c>
       <c r="E49" t="n">
-        <v>3.99758248930579</v>
+        <v>1.12997115708868</v>
       </c>
     </row>
     <row r="50">
@@ -1250,7 +1250,7 @@
         <v>21.021645021645</v>
       </c>
       <c r="E50" t="n">
-        <v>3.99758248930579</v>
+        <v>1.71588657484018</v>
       </c>
     </row>
     <row r="51">
@@ -1267,7 +1267,7 @@
         <v>0.502164502164502</v>
       </c>
       <c r="E51" t="n">
-        <v>3.99758248930579</v>
+        <v>0.115253786509998</v>
       </c>
     </row>
     <row r="52">
@@ -1284,7 +1284,7 @@
         <v>21.0865800865801</v>
       </c>
       <c r="E52" t="n">
-        <v>3.99758248930579</v>
+        <v>1.27202055637692</v>
       </c>
     </row>
     <row r="53">
@@ -1301,7 +1301,7 @@
         <v>0.480519480519481</v>
       </c>
       <c r="E53" t="n">
-        <v>3.99758248930579</v>
+        <v>0.109036671019418</v>
       </c>
     </row>
     <row r="54">
@@ -1318,7 +1318,7 @@
         <v>31.4675324675325</v>
       </c>
       <c r="E54" t="n">
-        <v>3.99758248930579</v>
+        <v>1.95987178935455</v>
       </c>
     </row>
     <row r="55">
@@ -1335,7 +1335,7 @@
         <v>6.83549783549784</v>
       </c>
       <c r="E55" t="n">
-        <v>3.99758248930579</v>
+        <v>0.532860502061678</v>
       </c>
     </row>
     <row r="56">
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>3.98563826076565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1369,7 +1369,7 @@
         <v>3.78</v>
       </c>
       <c r="E57" t="n">
-        <v>3.98563826076565</v>
+        <v>1.08770118945923</v>
       </c>
     </row>
     <row r="58">
@@ -1386,7 +1386,7 @@
         <v>10.76</v>
       </c>
       <c r="E58" t="n">
-        <v>3.98563826076565</v>
+        <v>1.14091263147231</v>
       </c>
     </row>
     <row r="59">
@@ -1403,7 +1403,7 @@
         <v>28.2</v>
       </c>
       <c r="E59" t="n">
-        <v>3.98563826076565</v>
+        <v>4.08521475467774</v>
       </c>
     </row>
     <row r="60">
@@ -1420,7 +1420,7 @@
         <v>1.22</v>
       </c>
       <c r="E60" t="n">
-        <v>3.98563826076565</v>
+        <v>0.314662112269589</v>
       </c>
     </row>
     <row r="61">
@@ -1437,7 +1437,7 @@
         <v>16.64</v>
       </c>
       <c r="E61" t="n">
-        <v>3.98563826076565</v>
+        <v>1.50041082809383</v>
       </c>
     </row>
     <row r="62">
@@ -1454,7 +1454,7 @@
         <v>0.72</v>
       </c>
       <c r="E62" t="n">
-        <v>3.98563826076565</v>
+        <v>0.292825782293005</v>
       </c>
     </row>
     <row r="63">
@@ -1471,7 +1471,7 @@
         <v>31.64</v>
       </c>
       <c r="E63" t="n">
-        <v>3.98563826076565</v>
+        <v>2.80040230346007</v>
       </c>
     </row>
     <row r="64">
@@ -1488,7 +1488,7 @@
         <v>7.04</v>
       </c>
       <c r="E64" t="n">
-        <v>3.98563826076565</v>
+        <v>0.827072535870849</v>
       </c>
     </row>
     <row r="65">
@@ -1505,7 +1505,7 @@
         <v>0.00666666666666667</v>
       </c>
       <c r="E65" t="n">
-        <v>4.46346872806562</v>
+        <v>0.00666666666666667</v>
       </c>
     </row>
     <row r="66">
@@ -1522,7 +1522,7 @@
         <v>0.0266666666666667</v>
       </c>
       <c r="E66" t="n">
-        <v>4.46346872806562</v>
+        <v>0.013198422611557</v>
       </c>
     </row>
     <row r="67">
@@ -1539,7 +1539,7 @@
         <v>11.98</v>
       </c>
       <c r="E67" t="n">
-        <v>4.46346872806562</v>
+        <v>1.01498702342351</v>
       </c>
     </row>
     <row r="68">
@@ -1556,7 +1556,7 @@
         <v>39.4466666666667</v>
       </c>
       <c r="E68" t="n">
-        <v>4.46346872806562</v>
+        <v>2.62208033716671</v>
       </c>
     </row>
     <row r="69">
@@ -1573,7 +1573,7 @@
         <v>0.986666666666667</v>
       </c>
       <c r="E69" t="n">
-        <v>4.46346872806562</v>
+        <v>0.307109883003833</v>
       </c>
     </row>
     <row r="70">
@@ -1590,7 +1590,7 @@
         <v>15.4266666666667</v>
       </c>
       <c r="E70" t="n">
-        <v>4.46346872806562</v>
+        <v>1.12021676819953</v>
       </c>
     </row>
     <row r="71">
@@ -1607,7 +1607,7 @@
         <v>0.88</v>
       </c>
       <c r="E71" t="n">
-        <v>4.46346872806562</v>
+        <v>0.134753067726657</v>
       </c>
     </row>
     <row r="72">
@@ -1624,7 +1624,7 @@
         <v>23.3066666666667</v>
       </c>
       <c r="E72" t="n">
-        <v>4.46346872806562</v>
+        <v>1.58939287908512</v>
       </c>
     </row>
     <row r="73">
@@ -1641,7 +1641,7 @@
         <v>7.94</v>
       </c>
       <c r="E73" t="n">
-        <v>4.46346872806562</v>
+        <v>0.589257296156633</v>
       </c>
     </row>
     <row r="74">
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>3.97082348471589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1675,7 +1675,7 @@
         <v>0.273913043478261</v>
       </c>
       <c r="E75" t="n">
-        <v>3.97082348471589</v>
+        <v>0.148516074749844</v>
       </c>
     </row>
     <row r="76">
@@ -1692,7 +1692,7 @@
         <v>11.7391304347826</v>
       </c>
       <c r="E76" t="n">
-        <v>3.97082348471589</v>
+        <v>0.824422493512126</v>
       </c>
     </row>
     <row r="77">
@@ -1709,7 +1709,7 @@
         <v>31.1086956521739</v>
       </c>
       <c r="E77" t="n">
-        <v>3.97082348471589</v>
+        <v>1.99764567432513</v>
       </c>
     </row>
     <row r="78">
@@ -1726,7 +1726,7 @@
         <v>1.29565217391304</v>
       </c>
       <c r="E78" t="n">
-        <v>3.97082348471589</v>
+        <v>0.331095140219898</v>
       </c>
     </row>
     <row r="79">
@@ -1743,7 +1743,7 @@
         <v>22.1695652173913</v>
       </c>
       <c r="E79" t="n">
-        <v>3.97082348471589</v>
+        <v>1.19091226108559</v>
       </c>
     </row>
     <row r="80">
@@ -1760,7 +1760,7 @@
         <v>0.643478260869565</v>
       </c>
       <c r="E80" t="n">
-        <v>3.97082348471589</v>
+        <v>0.0820708360276816</v>
       </c>
     </row>
     <row r="81">
@@ -1777,7 +1777,7 @@
         <v>23.8086956521739</v>
       </c>
       <c r="E81" t="n">
-        <v>3.97082348471589</v>
+        <v>1.52967968150779</v>
       </c>
     </row>
     <row r="82">
@@ -1794,7 +1794,7 @@
         <v>8.96086956521739</v>
       </c>
       <c r="E82" t="n">
-        <v>3.97082348471589</v>
+        <v>0.839103283179233</v>
       </c>
     </row>
   </sheetData>
